--- a/biology/Médecine/Syndrome_de_Wolf-Hirschhorn/Syndrome_de_Wolf-Hirschhorn.xlsx
+++ b/biology/Médecine/Syndrome_de_Wolf-Hirschhorn/Syndrome_de_Wolf-Hirschhorn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Wolf-Hirschhorn  est une maladie chromosomique associant :
 faciès caractéristique ;
@@ -516,7 +528,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome 4p
 Délétion 4p
@@ -550,7 +564,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Délétion de la portion distale du bras court du chromosome 4 impliquant la bande 4p16 (région critique WHCR)
 75 % des monosomies 4p sont des délétions de novo (chromosome paternel le plus souvent)
@@ -583,7 +599,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 50 000 naissances. Atteint 2 filles pour un garçon.
 </t>
@@ -614,7 +632,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hypotonie avec crises d’épilepsie fréquentes. La plupart des enfants ne marchent pas et ne parlent pas. L’acquisition de la propreté est très tardive ;
 difficulté d’alimentation ;
@@ -663,7 +683,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caryotype standard diagnostique environ 60 à 70 % des délétions. L’hybridation in situ par fluorescence détecte la majorité des délétions de la région WHCR.
 </t>
@@ -694,7 +716,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Délétion de la région proximale du bras court du 4
 Les autres syndromes à éliminer :
@@ -734,7 +758,9 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L’analyse chromosomique des parents recherchera une translocation intéressant la région critique. Le conseil génétique dépendra du résultat du caryotype des parents.
 Le diagnostic prénatal est possible en cas de réarrangement chromosomique d’un des parents.
@@ -766,11 +792,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Page spécifique sur Orphanet
 (en) Site en anglais Incontournable pour les maladies génétiques
-(en) Agatino Battaglia, John C Carey, Tracy J Wright, « Wolf-Hirschhorn Syndrome » In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) Agatino Battaglia, John C Carey, Tracy J Wright, « Wolf-Hirschhorn Syndrome » In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail du handicap   Portail de la médecine                    </t>
         </is>
       </c>
